--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value714.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value714.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.364624670764761</v>
+        <v>1.486451983451843</v>
       </c>
       <c r="B1">
-        <v>2.206020631980458</v>
+        <v>2.85660195350647</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.704688314910931</v>
+        <v>1.366375923156738</v>
       </c>
       <c r="E1">
-        <v>0.8440174536364961</v>
+        <v>0.8627302050590515</v>
       </c>
     </row>
   </sheetData>
